--- a/+aae550/+hw3/+p2/results.xlsx
+++ b/+aae550/+hw3/+p2/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Run 1</t>
   </si>
@@ -146,16 +146,22 @@
     <t>Run 3</t>
   </si>
   <si>
-    <t>[-1.414967e-6; 4.464571e-7]</t>
-  </si>
-  <si>
-    <t>[-1.42215e-5, 0.994959]</t>
-  </si>
-  <si>
-    <t>[3.683251e-7; 3.8475431e-7]</t>
-  </si>
-  <si>
-    <t>[0.9949585; -2.010778e-7]</t>
+    <t>[-1.41496e-6; 4.46457e-7]</t>
+  </si>
+  <si>
+    <t>[9.58620e-7; 7.64358e-8]</t>
+  </si>
+  <si>
+    <t>[-1.42215e-5, 0.99496]</t>
+  </si>
+  <si>
+    <t>[3.68325e-7; 3.84754e-7]</t>
+  </si>
+  <si>
+    <t>[9.58620e-7; 7.64398e-8]</t>
+  </si>
+  <si>
+    <t>[0.99495; -2.01078e-7]</t>
   </si>
 </sst>
 </file>
@@ -195,15 +201,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -211,19 +223,192 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,353 +689,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:I40"/>
+  <dimension ref="A17:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:9" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0.85</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>88801</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <v>2.5832899999999998E-7</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>2.2726E-10</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="12">
         <v>0.85</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="12">
         <v>84801</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="13">
         <v>5.8220800000000002E-7</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="14">
         <v>1.8346999999999999E-10</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="12">
         <v>0.85</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="12">
         <v>83201</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="13">
         <v>8.0582500000000003E-7</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="14">
         <v>6.3471999999999995E-10</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="17">
         <v>15</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
         <v>0.85</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="17">
         <v>81601</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="18">
         <v>1.1153299999999999E-6</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>7.6820999999999998E-10</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>50</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>0.85</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>92001</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="8">
         <v>4.4949799999999999E-7</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="9">
         <v>4.3675000000000002E-10</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="12">
         <v>15</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="12">
         <v>0.85</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>84801</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="13">
         <v>5.8220800000000002E-7</v>
       </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="H31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="14">
         <v>1.8346999999999999E-10</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="17">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="17">
         <v>0.85</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="17">
         <v>74401</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="18">
         <v>6.4205300000000004E-7</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1">
         <v>0.995</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="C37" s="1" t="s">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>15</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>0.98</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>663201</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="8">
         <v>8.15233E-7</v>
       </c>
-      <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="H38" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9">
         <v>5.6282000000000003E-11</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="12">
         <v>15</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="12">
         <v>0.85</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>84801</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="13">
         <v>5.8220800000000002E-7</v>
       </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="H39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="14">
         <v>1.8346999999999999E-10</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="17">
         <v>15</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="17">
         <v>0.3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="17">
         <v>15201</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="18">
         <v>5.8113100000000003E-9</v>
       </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="H40" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1">
         <v>0.995</v>
       </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
